--- a/Assets/Excel/QuestInfo.xlsx
+++ b/Assets/Excel/QuestInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB271865-EDEB-4AF6-9D36-90465D2EF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE9E15-2213-472A-A76C-3E87B1297329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>itemInfoType:1,quantity:1,itemId:0,index:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerFirstTalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,21 +530,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -548,84 +543,84 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
@@ -633,15 +628,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Assets/Excel/QuestInfo.xlsx
+++ b/Assets/Excel/QuestInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE9E15-2213-472A-A76C-3E87B1297329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA19AB-6208-4055-B9ED-F294C1FFF1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,46 +44,6 @@
   </si>
   <si>
     <t>rewardItemInfos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemInfoType:0,quantity:1,itemId:0,index:5</t>
-  </si>
-  <si>
-    <t>Quest2</t>
-  </si>
-  <si>
-    <t>Quest3</t>
-  </si>
-  <si>
-    <t>Quest4</t>
-  </si>
-  <si>
-    <t>Quest5</t>
-  </si>
-  <si>
-    <t>Quest2的描述
-多行描述
-多行描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest3的描述
-多行描述
-多行描述
-多行描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest4的单行描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest5的描述
-多行描述
-多行描述
-多行描述
-多行描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,12 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemInfoType:0,quantity:10,itemId:0,index:0;
-itemInfoType:1,quantity:3,itemId:0,index:1;
-itemInfoType:1,quantity:3,itemId:2,index:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemInfoType:1,quantity:3,itemId:2,index:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,46 +71,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name:Slime,requireAmount:3,requireType:0;
-name:Turtle,requireAmount:6,requireType:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest6</t>
-  </si>
-  <si>
-    <t>Quest6的描述
-多行描述
-多行描述
-多行描述
-多行描述</t>
-  </si>
-  <si>
-    <t>itemInfoType:0,quantity:1,itemId:0,index:6</t>
-  </si>
-  <si>
     <t>name:Mushroom1,requireAmount:1,requireType:1;
 name:Mushroom2,requireAmount:1,requireType:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采集蘑菇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷蒙长官让我采集一个普通蘑菇和一个毒蘑菇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemInfoType:0,quantity:3,itemId:0,index:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初试锋芒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷蒙长官让我击杀一个史莱姆和一个海龟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,7 +89,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>playerFirstTalk</t>
+    <t>我在村口醒来，身体虚弱且失去了记忆。守卫队长 Ramon 并没有直接给我食物，而是决定教我野外生存的第一法则：分辨食物。 他要求我在村口附近采集两种蘑菇带回去。据说一种可以恢复体力，而另一种含有剧毒。我必须小心辨别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林间生存第一课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初试身手除隐患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫队长 Ramon 虽然认可了我的生存能力，但村庄的武器库存紧缺，他不能随意将铁剑交给陌生人。 为了证明我有资格成为一名战士，Ramon 要求我在没有武器的情况下，前往村口解决两只发狂的野生动物。这是一场勇气的试炼，只有通过考验，我才能获得那把防身的铁剑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探查密林异变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村庄周边的野兽袭击越来越频繁，守卫队长 Ramon 怀疑这背后必有蹊跷。所有的迹象都指向那片幽暗的密林。 Ramon 委托我深入密林腹地，查明野兽发狂的真正原因。这是一次危险的单人侦查，我需要一路杀进去，无论在深处发现了什么，都要活着带回情报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭露地牢阴谋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫队长 Ramon 确认了密林深处的漩涡是连接哥布林世界的通道。如果不切断源头，村庄将永无宁日。 Ramon 必须留守指挥防御，他将潜入敌后的重任交给了我。我必须穿过传送门进入地牢，消灭那里的守军，并查明哥布林到底在策划什么阴谋。这可能是一趟有去无回的旅程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承遗志战终章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫队长 Ramon 为了守护村庄壮烈牺牲，但他留下的盾牌将由我来守护。 根据情报，哥布林已经逃往沙漠世界，并与在那里的石头人结成了同盟，企图发动最后的总攻 。我必须带着 Ramon 的遗志，穿过金色传送门，在它们发起进攻前将这股邪恶势力彻底消灭。这是最后的决战！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,132 +486,96 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/QuestInfo.xlsx
+++ b/Assets/Excel/QuestInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA19AB-6208-4055-B9ED-F294C1FFF1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F579F-E7BC-4F30-AE8D-84470EC1EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,27 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemInfoType:0,quantity:1,itemId:0,index:3;
-itemInfoType:1,quantity:3,itemId:2,index:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemInfoType:1,quantity:3,itemId:2,index:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:Slime,requireAmount:3,requireType:0;
-name:Turtle,requireAmount:3,requireType:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:Slime,requireAmount:3,requireType:0;
-name:Turtle,requireAmount:4,requireType:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:Slime,requireAmount:3,requireType:0;
-name:Turtle,requireAmount:5,requireType:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,6 +106,14 @@
   </si>
   <si>
     <t>守卫队长 Ramon 为了守护村庄壮烈牺牲，但他留下的盾牌将由我来守护。 根据情报，哥布林已经逃往沙漠世界，并与在那里的石头人结成了同盟，企图发动最后的总攻 。我必须带着 Ramon 的遗志，穿过金色传送门，在它们发起进攻前将这股邪恶势力彻底消灭。这是最后的决战！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:探明哥布林的秘密计划,requireAmount:1,requireType:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:调查密林深处的异象,requireAmount:1,requireType:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,15 +444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.88671875" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -491,16 +479,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.25">
@@ -508,16 +496,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.25">
@@ -525,48 +513,44 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Assets/Excel/QuestInfo.xlsx
+++ b/Assets/Excel/QuestInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F579F-E7BC-4F30-AE8D-84470EC1EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB880C-42FC-4CC3-96DD-AECFCD2DD667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="564" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>rewardItemInfos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemInfoType:1,quantity:3,itemId:2,index:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,11 +105,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name:探明哥布林的秘密计划,requireAmount:1,requireType:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:调查密林深处的异象,requireAmount:1,requireType:2</t>
+    <t>name:调查密林深处的异象,requireAmount:1,requireType:2;
+name:Slime,requireAmount:5,requireType:0;
+name:Turtle,requireAmount:5,requireType:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:探明哥布林的秘密计划,requireAmount:1,requireType:2;
+name:Grunt,requireAmount:4,requireType:0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:Golem,requireAmount:1,requireType:0;
+name:Grunt,requireAmount:5,requireType:0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemInfoType:1,quantity:1,itemId:2,index:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -479,83 +487,83 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>5</v>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
